--- a/Project/DataTable/Excel/角色等级配置表.xlsx
+++ b/Project/DataTable/Excel/角色等级配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050"/>
+    <workbookView windowWidth="28710" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Data_HeroLevel" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <dimension ref="$A1:$XFD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -66214,7 +66214,7 @@
         <v>250</v>
       </c>
       <c r="C5">
-        <v>510</v>
+        <v>1050</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -66255,7 +66255,7 @@
         <v>275</v>
       </c>
       <c r="C6">
-        <v>570</v>
+        <v>1110</v>
       </c>
       <c r="D6">
         <v>38</v>
@@ -66296,7 +66296,7 @@
         <v>303</v>
       </c>
       <c r="C7">
-        <v>630</v>
+        <v>1170</v>
       </c>
       <c r="D7">
         <v>41</v>
@@ -66337,7 +66337,7 @@
         <v>333</v>
       </c>
       <c r="C8">
-        <v>690</v>
+        <v>1230</v>
       </c>
       <c r="D8">
         <v>44</v>
@@ -66378,7 +66378,7 @@
         <v>366</v>
       </c>
       <c r="C9">
-        <v>750</v>
+        <v>1290</v>
       </c>
       <c r="D9">
         <v>47</v>
@@ -66419,7 +66419,7 @@
         <v>403</v>
       </c>
       <c r="C10">
-        <v>810</v>
+        <v>1350</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -66460,7 +66460,7 @@
         <v>443</v>
       </c>
       <c r="C11">
-        <v>870</v>
+        <v>1410</v>
       </c>
       <c r="D11">
         <v>53</v>
@@ -66501,7 +66501,7 @@
         <v>487</v>
       </c>
       <c r="C12">
-        <v>930</v>
+        <v>1470</v>
       </c>
       <c r="D12">
         <v>56</v>
@@ -66542,7 +66542,7 @@
         <v>536</v>
       </c>
       <c r="C13">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="D13">
         <v>59</v>
